--- a/CGCNN_MT/evaluation/ML_results_test.xlsx
+++ b/CGCNN_MT/evaluation/ML_results_test.xlsx
@@ -499,25 +499,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>TSD</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.83</v>
-      </c>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>RF</t>
@@ -528,18 +526,18 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Nandy2021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0.76</v>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP</t>
@@ -549,23 +547,25 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.43</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.83</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>RF</t>
@@ -576,18 +576,18 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Nandy2021</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.76</v>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP</t>
@@ -597,28 +597,28 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>WS24_acid</t>
+          <t>WS24_water</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Terrones2024</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F7" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="G7" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -649,28 +649,28 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WS24_base</t>
+          <t>WS24_water4</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="F8" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="G8" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Terrones2024</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="G9" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -701,28 +701,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>WS24_boiling</t>
+          <t>WS24_acid</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
@@ -730,19 +730,19 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Terrones2024</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="F11" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -753,12 +753,12 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>WS24_water</t>
+          <t>WS24_base</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -767,14 +767,14 @@
         <v>0.71</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G12" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Terrones2024</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -805,24 +805,24 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>WS24_water4</t>
+          <t>WS24_boiling</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="F14" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="G14" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -834,19 +834,19 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Terrones2024</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F15" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="G15" t="n">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
